--- a/sharing emails/template.xlsx
+++ b/sharing emails/template.xlsx
@@ -28,7 +28,7 @@
     <t>1YgYvNF6xD0cU0cDtpE5nHOhnF-bw89LY</t>
   </si>
   <si>
-    <t>maks.dobzhinetsky14@gmail.com</t>
+    <t>maksym.dobzhinetskii@uvik.net</t>
   </si>
   <si>
     <t>1h5S8TZ4_KreAWW8xqQyi2chqwE2xVpj9</t>
